--- a/motoristas.xlsx
+++ b/motoristas.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OneDrive\Professional\09 - Transportta\Sistema\Relatorio\extratoMotorista\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Relatorio\extratoMotorista\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{3C257AE5-6283-432B-8A2C-983B67FCF983}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B2E52A66-D13E-4607-A71C-CB77FBC3FE3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C439B7-6417-4594-9BD7-99D4DDB8B1E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F7897B1F-7B42-471E-952D-3C6512A393DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relacao" sheetId="1" r:id="rId1"/>
+    <sheet name="Relação" sheetId="1" r:id="rId1"/>
     <sheet name="Apelido" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
   <si>
     <t>ABDIAS BEZERRA CARVALHO</t>
   </si>
@@ -401,12 +401,6 @@
   </si>
   <si>
     <t>RAIMUNDO RAULINO</t>
-  </si>
-  <si>
-    <t>WESLLEY DA SILVA COSTA</t>
-  </si>
-  <si>
-    <t>WESLLEY</t>
   </si>
 </sst>
 </file>
@@ -901,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E5E47A-32C0-495E-90EE-86626A142F02}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1553,23 +1547,6 @@
         <v>120</v>
       </c>
       <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="1">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5</v>
-      </c>
-      <c r="E38" s="4">
-        <v>8694557202</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/motoristas.xlsx
+++ b/motoristas.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Relatorio\extratoMotorista\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2122e6c3df04338c/Professional/09 - Transportta/Sistema/Relatorio/extratoMotorista/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C439B7-6417-4594-9BD7-99D4DDB8B1E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EF81BD62-BF7B-457F-BE41-C5BABEE8F28C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F7897B1F-7B42-471E-952D-3C6512A393DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relação" sheetId="1" r:id="rId1"/>
+    <sheet name="Relacao" sheetId="1" r:id="rId1"/>
     <sheet name="Apelido" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
   <si>
     <t>ABDIAS BEZERRA CARVALHO</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>RAIMUNDO RAULINO</t>
+  </si>
+  <si>
+    <t>WESLLEY DA SILVA COSTA</t>
+  </si>
+  <si>
+    <t>WESLLEY</t>
+  </si>
+  <si>
+    <t>Matricula</t>
   </si>
 </sst>
 </file>
@@ -895,658 +904,679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E5E47A-32C0-495E-90EE-86626A142F02}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>1943</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>83</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>948</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>1832</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>1834</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>1666</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>1574</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>34</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="4" t="s">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>764</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>643</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>47</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>1346</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>48</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>700</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>51</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>1774</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>69</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="4" t="s">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>720</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="4" t="s">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>1942</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>87</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>2011</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>92</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="4" t="s">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>450</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="2:7">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>1347</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>26</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="4" t="s">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>1805</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>58</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A20" s="4" t="s">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>2261</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>106</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="4" t="s">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>2010</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>98</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A22" s="4" t="s">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>2012</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>93</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="4" t="s">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>325</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>62</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>1412</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>63</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>884</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>109</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>2066</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>102</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="2:7">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>711</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>23</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>302</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>144</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>1387</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>66</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="2:7">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>322</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>11</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="4" t="s">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>712</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>22</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>1004</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>25</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A34" s="4" t="s">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>1575</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>71</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4" t="s">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>2447</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>143</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="4" t="s">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>2448</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>142</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="2:7">
+      <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>1435</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>76</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="1">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4">
+        <v>8694557202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
